--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3145519.307915126</v>
+        <v>3143267.228203919</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.03085908135016</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,7 +716,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>104.8826817288994</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247902</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.328572227598</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>210.058734697856</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>254.9674888346825</v>
+        <v>142.679692963796</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>70.84016222789685</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>159.5199829376698</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>126.5388824951727</v>
+        <v>14.42881909501794</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414546</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>183.017225111064</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>12.61028049873788</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.019807611472022</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>21.44532649588058</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.45765197016587</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.56693137108789</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.64725059288511</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>84.90358457993533</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>27.7774908685949</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>100.2207207382361</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>39.56681219551418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>91.66636605273423</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>120.6512573180102</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1647.321240915451</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.358723975039</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
         <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2760.155494510766</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2407.386839240652</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2033.921080979572</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.921080979572</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387319</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927795</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158137</v>
@@ -4419,40 +4419,40 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4504,34 +4504,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672848</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672848</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>1645.778206672848</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X4" t="n">
-        <v>1417.78865577483</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y4" t="n">
-        <v>1196.9960766313</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495405</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C5" t="n">
-        <v>758.7856865549932</v>
+        <v>942.9472709150275</v>
       </c>
       <c r="D5" t="n">
-        <v>758.7856865549932</v>
+        <v>942.9472709150275</v>
       </c>
       <c r="E5" t="n">
-        <v>372.9974339567489</v>
+        <v>557.1590183167832</v>
       </c>
       <c r="F5" t="n">
-        <v>366.0519332075455</v>
+        <v>550.2135175675797</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609172</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559527</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1765.908371423903</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1476.805504549547</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1476.805504549547</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1476.805504549547</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X7" t="n">
-        <v>1248.815953651529</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y7" t="n">
-        <v>1028.023374507999</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.58875505237</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3197.788768583745</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>3197.788768583745</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>3197.788768583745</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>3197.788768583745</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145766</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581906</v>
@@ -4978,34 +4978,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1742.428664137924</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U10" t="n">
-        <v>1453.325797263567</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="X10" t="n">
-        <v>935.9190763285891</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2358.255433877228</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2138.653968900169</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1849.578742244367</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>666.6476097656493</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>593.6115863900017</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>593.6115863900017</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>445.6984928076085</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>298.8085453096982</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>298.8085453096982</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0967141518962</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650331</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6455,58 +6455,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>372.4964262156764</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1017.232257523796</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>848.2960745958886</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>698.1794351835529</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>550.2663416011598</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>403.3763941032494</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6680,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,13 +6783,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032295</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2406.996606615095</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2187.395141638036</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1898.319914982233</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1643.635426776346</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1354.218256739386</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.063349920562</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>855.1271669926552</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>705.0105275803195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>557.0974339979264</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F43" t="n">
-        <v>410.207486500016</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6673633290469</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>699.73118040114</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-4.392856168232731e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>142.4141550350971</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>159.580959505764</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>120.1578210480465</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.2650488108494</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>18.61858572568042</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>80.62055371233352</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.4693302300329</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>48.39475227997627</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4594738061304</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>73.85777223953461</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.18072286392712</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719672.0419590265</v>
+        <v>719672.0419590264</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>719672.0419590264</v>
+        <v>719672.0419590265</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820623</v>
+        <v>93403.78684820625</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820625</v>
+        <v>93403.78684820622</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
@@ -26442,19 +26442,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26522,46 +26522,46 @@
         <v>-811670.9245059446</v>
       </c>
       <c r="C6" t="n">
-        <v>517073.8212216484</v>
+        <v>517073.8212216487</v>
       </c>
       <c r="D6" t="n">
         <v>517073.8212216482</v>
       </c>
       <c r="E6" t="n">
-        <v>265501.5310206385</v>
+        <v>265466.793095203</v>
       </c>
       <c r="F6" t="n">
-        <v>590913.9928279934</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="G6" t="n">
-        <v>590913.9928279928</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="H6" t="n">
-        <v>590913.9928279935</v>
+        <v>590879.2549025575</v>
       </c>
       <c r="I6" t="n">
-        <v>590913.9928279934</v>
+        <v>590879.2549025577</v>
       </c>
       <c r="J6" t="n">
-        <v>373382.7904307156</v>
+        <v>373348.05250528</v>
       </c>
       <c r="K6" t="n">
-        <v>590913.9928279931</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="L6" t="n">
-        <v>590913.9928279932</v>
+        <v>590879.2549025578</v>
       </c>
       <c r="M6" t="n">
-        <v>505858.9648924814</v>
+        <v>505824.2269670457</v>
       </c>
       <c r="N6" t="n">
-        <v>590913.9928279935</v>
+        <v>590879.2549025576</v>
       </c>
       <c r="O6" t="n">
-        <v>590913.9928279935</v>
+        <v>590879.2549025576</v>
       </c>
       <c r="P6" t="n">
-        <v>590913.9928279935</v>
+        <v>590879.2549025578</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593299</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022931</v>
@@ -26963,40 +26963,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>257.6521825393328</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>222.8695767412356</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.50340795433927</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>76.46426363873505</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>155.954236818771</v>
+        <v>268.2420326896575</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>148.7087870482723</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.064670414425</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>77.37908764444745</v>
+        <v>189.4891510446022</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>36.5317241651052</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>213.0993748902993</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.632190443471565e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,10 +31039,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31051,31 +31051,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31124,43 +31124,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,19 +31203,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31230,13 +31230,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
@@ -31525,31 +31525,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
         <v>19.17787942451121</v>
@@ -31598,43 +31598,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837908</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,19 +31677,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883116</v>
@@ -31704,13 +31704,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31993,7 +31993,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,10 +32081,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>279.0775374915855</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004575</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701982</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,10 +35729,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>136.4812930471411</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>320.8355783388566</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
